--- a/Testdata/LiveSLR_SmokeTest_PROD.xlsx
+++ b/Testdata/LiveSLR_SmokeTest_PROD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7A1FB-5E15-420A-A435-6F9914ECD5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F510A4-D1AE-40F8-912E-E53A343EE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -146,12 +146,6 @@
     <t>intervention_section6_checkbox</t>
   </si>
   <si>
-    <t>scenario3</t>
-  </si>
-  <si>
-    <t>scenario4</t>
-  </si>
-  <si>
     <t>Takeda - MM Maintenance</t>
   </si>
   <si>
@@ -165,21 +159,6 @@
   </si>
   <si>
     <t>WordReport-Takeda - MM Maintenance-Clinical-</t>
-  </si>
-  <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>Economic_radio_button</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-Takeda-MM Maintenance-Economic-2023_</t>
-  </si>
-  <si>
-    <t>ExcelReport-Takeda-MM Maintenance-Economic-</t>
-  </si>
-  <si>
-    <t>WordReport-Takeda - MM Maintenance-Economic-</t>
   </si>
   <si>
     <t>ToolTip_Info</t>
@@ -555,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -610,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -631,10 +610,10 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -651,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -671,10 +650,10 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -691,16 +670,16 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -708,113 +687,67 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="I8" t="s">
-        <v>22</v>
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LiveSLR_SmokeTest_PROD.xlsx
+++ b/Testdata/LiveSLR_SmokeTest_PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F510A4-D1AE-40F8-912E-E53A343EE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624AA4A5-60EA-4C60-968C-2675EA2F0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>This filter shortens the report length, limiting the viewable rows to only those studies that reported data for outcomes selected.</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Non-Oncology</t>
   </si>
 </sst>
 </file>
@@ -534,219 +543,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="I6" t="s">
+      <c r="B6" s="1"/>
+      <c r="J6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Testdata/LiveSLR_SmokeTest_PROD.xlsx
+++ b/Testdata/LiveSLR_SmokeTest_PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624AA4A5-60EA-4C60-968C-2675EA2F0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3E68C4-89ED-4E79-B123-5B10B95964FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
@@ -77,15 +77,6 @@
     <t>sectionname</t>
   </si>
   <si>
-    <t>sub_pop_section1</t>
-  </si>
-  <si>
-    <t>sub_pop_section1_checkbox</t>
-  </si>
-  <si>
-    <t>sub_pop_section</t>
-  </si>
-  <si>
     <t>intervention_section4</t>
   </si>
   <si>
@@ -131,15 +122,6 @@
     <t>reported_variable_section1_checkbox</t>
   </si>
   <si>
-    <t>lot_section1</t>
-  </si>
-  <si>
-    <t>lot_section1_checkbox</t>
-  </si>
-  <si>
-    <t>lot_section</t>
-  </si>
-  <si>
     <t>intervention_section6</t>
   </si>
   <si>
@@ -183,6 +165,24 @@
   </si>
   <si>
     <t>Non-Oncology</t>
+  </si>
+  <si>
+    <t>pop_filter2_section1</t>
+  </si>
+  <si>
+    <t>pop_filter2_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter2_section</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -590,10 +590,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -601,13 +601,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -616,19 +616,19 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -636,19 +636,19 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -676,34 +676,34 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -718,55 +718,55 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
